--- a/2_specs/domain/csp_audience.xlsx
+++ b/2_specs/domain/csp_audience.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\d.workshop\pony\2_specs\domain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\360CloudUI\Cache\1333240703\studio\km.pony\2_specs\domain\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
   <si>
     <t>Label</t>
   </si>
@@ -236,30 +236,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>EmployerId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegisteredOn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CampaignId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>雇主</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -268,11 +244,79 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>是否取消</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Audience</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmailAddress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AudienceStatusCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受众状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>受众类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AudienceTypeId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubscribedOn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订阅日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订阅者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastModified</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次更新时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inactive=0;Active=1;DontDelivery=9</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -584,7 +628,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -703,9 +747,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1021,7 +1062,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1041,7 +1082,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="N1" s="30" t="s">
         <v>52</v>
@@ -1101,7 +1142,7 @@
         <v>53</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>3</v>
@@ -1124,22 +1165,24 @@
         <f t="shared" ref="A5:A31" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>59</v>
+      <c r="B5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34" t="b">
+        <v>1</v>
+      </c>
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
       <c r="N5" s="38"/>
@@ -1150,13 +1193,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -1175,48 +1218,48 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C7" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="7"/>
+      <c r="D7" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="7">
+        <v>100</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="36"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16" t="b">
-        <v>1</v>
-      </c>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
-      <c r="N7" s="39"/>
+      <c r="N7" s="38"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>63</v>
+      <c r="B8" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+        <v>13</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="36"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
       <c r="N8" s="38"/>
@@ -1226,52 +1269,74 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>27</v>
+      </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="36"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
+      <c r="I9" s="17">
+        <v>1</v>
+      </c>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
-      <c r="N9" s="38"/>
+      <c r="N9" s="38" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="B10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
       <c r="H10" s="36"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
-      <c r="N10" s="39"/>
+      <c r="N10" s="38"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="B11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="36"/>
-      <c r="I11" s="7"/>
+      <c r="I11" s="17"/>
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
       <c r="L11" s="18"/>
@@ -1283,19 +1348,19 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="37"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="36"/>
-      <c r="I12" s="7"/>
+      <c r="I12" s="17"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
-      <c r="N12" s="40"/>
+      <c r="N12" s="38"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
@@ -1303,8 +1368,8 @@
         <v>10</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="34"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -1314,7 +1379,7 @@
       <c r="K13" s="16"/>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
-      <c r="N13" s="38"/>
+      <c r="N13" s="39"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
@@ -1323,7 +1388,7 @@
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="16"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -1333,7 +1398,7 @@
       <c r="K14" s="16"/>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
-      <c r="N14" s="19"/>
+      <c r="N14" s="38"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
@@ -1661,10 +1726,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:M4 J9:K9 K10:K31 H4:H31 K5:K8 L5:M31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:M5 J12:K12 K6:K11 K13:K31 L6:M31 H4:H31">
       <formula1>"TRUE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J8 J10:J31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J11 J13:J31">
       <formula1>"√"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D31">

--- a/2_specs/domain/csp_audience.xlsx
+++ b/2_specs/domain/csp_audience.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
   <si>
     <t>Label</t>
   </si>
@@ -249,14 +249,6 @@
   </si>
   <si>
     <t>UserId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EmailAddress</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件地址</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -308,15 +300,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>LastModified</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上次更新时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inactive=0;Active=1;DontDelivery=9</t>
+    <t>受众标记</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserTypeId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inactive=0;Active=1;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分发渠道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email=1;Mobile=2;WeiXin=4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChannelCode</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1056,13 +1060,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1162,14 +1166,14 @@
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="14">
-        <f t="shared" ref="A5:A31" si="0">ROW()-3</f>
+        <f t="shared" ref="A5:A32" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>3</v>
@@ -1183,7 +1187,9 @@
       <c r="K5" s="34" t="b">
         <v>1</v>
       </c>
-      <c r="L5" s="18"/>
+      <c r="L5" s="18" t="b">
+        <v>1</v>
+      </c>
       <c r="M5" s="18"/>
       <c r="N5" s="38"/>
     </row>
@@ -1196,7 +1202,7 @@
         <v>59</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>3</v>
@@ -1209,7 +1215,9 @@
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
+      <c r="M6" s="18" t="b">
+        <v>1</v>
+      </c>
       <c r="N6" s="38"/>
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1218,25 +1226,25 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="7">
-        <v>100</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="36"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
       <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
+      <c r="M7" s="18" t="b">
+        <v>1</v>
+      </c>
       <c r="N7" s="38"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1244,25 +1252,29 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>66</v>
+      <c r="B8" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="36"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
+      <c r="I8" s="17">
+        <v>1</v>
+      </c>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
-      <c r="N8" s="38"/>
+      <c r="N8" s="38" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14">
@@ -1270,21 +1282,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="36"/>
-      <c r="I9" s="17">
-        <v>1</v>
-      </c>
+      <c r="I9" s="17"/>
       <c r="J9" s="34"/>
       <c r="K9" s="34"/>
       <c r="L9" s="18"/>
@@ -1299,13 +1309,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -1327,7 +1337,7 @@
         <v>57</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="34" t="s">
         <v>10</v>
@@ -1367,19 +1377,19 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="4"/>
       <c r="C13" s="37"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
       <c r="H13" s="36"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
-      <c r="N13" s="39"/>
+      <c r="N13" s="38"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
@@ -1387,8 +1397,8 @@
         <v>11</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="34"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -1398,7 +1408,7 @@
       <c r="K14" s="16"/>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
-      <c r="N14" s="38"/>
+      <c r="N14" s="39"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
@@ -1540,14 +1550,14 @@
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="25"/>
-      <c r="D22" s="16"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="36"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
       <c r="L22" s="18"/>
       <c r="M22" s="18"/>
       <c r="N22" s="26"/>
@@ -1559,14 +1569,14 @@
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="25"/>
-      <c r="D23" s="16"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="36"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
       <c r="N23" s="26"/>
@@ -1578,14 +1588,14 @@
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="25"/>
-      <c r="D24" s="16"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="36"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
       <c r="L24" s="18"/>
       <c r="M24" s="18"/>
       <c r="N24" s="26"/>
@@ -1597,14 +1607,14 @@
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="25"/>
-      <c r="D25" s="16"/>
+      <c r="D25" s="34"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="36"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
       <c r="N25" s="26"/>
@@ -1616,14 +1626,14 @@
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="25"/>
-      <c r="D26" s="16"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="36"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
       <c r="N26" s="26"/>
@@ -1635,14 +1645,14 @@
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="25"/>
-      <c r="D27" s="34"/>
+      <c r="D27" s="16"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="36"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
       <c r="N27" s="26"/>
@@ -1654,14 +1664,14 @@
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="25"/>
-      <c r="D28" s="16"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="36"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
       <c r="L28" s="18"/>
       <c r="M28" s="18"/>
       <c r="N28" s="26"/>
@@ -1671,7 +1681,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B29" s="6"/>
+      <c r="B29" s="5"/>
       <c r="C29" s="25"/>
       <c r="D29" s="16"/>
       <c r="E29" s="7"/>
@@ -1683,7 +1693,7 @@
       <c r="K29" s="16"/>
       <c r="L29" s="18"/>
       <c r="M29" s="18"/>
-      <c r="N29" s="20"/>
+      <c r="N29" s="26"/>
     </row>
     <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="14">
@@ -1705,34 +1715,53 @@
       <c r="N30" s="20"/>
     </row>
     <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="21">
+      <c r="A31" s="14">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="29"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="20"/>
+    </row>
+    <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="21">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B32" s="28"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:M5 J12:K12 K6:K11 K13:K31 L6:M31 H4:H31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:M5 J12:K13 K14:K32 H4:H32 L6:M32 K6:K11">
       <formula1>"TRUE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J11 J13:J31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J14:J32 J6:J11">
       <formula1>"√"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D32">
       <formula1>DataType</formula1>
     </dataValidation>
   </dataValidations>
